--- a/Labs 3 sem/ТеорВер/Книга1.xlsx
+++ b/Labs 3 sem/ТеорВер/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stude\OneDrive\Рабочий стол\Labs\labs\Labs 3 sem\ТеорВер\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788831E2-05D0-4FFA-9D19-950568DDDD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3492931A-7A0A-42CD-A04E-468E75E063FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6A3200D-A56D-4C2A-BA6C-919B612E97DE}"/>
   </bookViews>
@@ -318,6 +318,12 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,12 +331,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1239,15 +1239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6485</xdr:rowOff>
+      <xdr:colOff>273630</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>583660</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139430</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>245079</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>170704</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1574,16 +1574,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180344EC-E41D-4FA3-B833-2B2F354AF18E}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" customWidth="1"/>
@@ -1594,11 +1594,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1929,11 +1929,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" t="s">
         <v>4</v>
       </c>
@@ -1967,19 +1967,19 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3">
         <f>F13/E12</f>
         <v>4.25</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="4">
         <v>4.3</v>
       </c>
@@ -2019,11 +2019,11 @@
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
@@ -2083,11 +2083,11 @@
         <f t="shared" ref="F18:F24" si="5">E18/$G$14</f>
         <v>1.6279069767441864E-2</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -2273,17 +2273,17 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
